--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/rbff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\NC\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A846BB-37DD-804D-9CED-0EC6083B8F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A63588B-A8F6-455F-8137-7B93A4DAE5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="1080" windowWidth="17205" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>RBFF Recipient Buildings Fuel Fractions</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Ensure that every column adds to 1.</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
   </si>
 </sst>
 </file>
@@ -434,19 +437,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
       <c r="C1" s="7">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,42 +462,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -507,16 +515,18 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="11" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -551,7 +561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -571,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -586,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -621,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -656,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -691,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -726,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -746,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -761,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -796,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -831,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -866,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>

--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\NC\bldgs\RBFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\NEW_US\InputData\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A63588B-A8F6-455F-8137-7B93A4DAE5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E3257-D795-4A92-804F-0180AA3862CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9660" yWindow="1080" windowWidth="17205" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>RBFF Recipient Buildings Fuel Fractions</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Ensure that every column adds to 1.</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
   </si>
 </sst>
 </file>
@@ -138,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -154,7 +151,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
@@ -443,18 +439,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7">
-        <v>44316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -462,42 +452,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
